--- a/Legend.xlsx
+++ b/Legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\SoftwareCategorization Dataset Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D1A196-E8ED-4D9E-96A5-AB2B3112E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4470C86-591F-4925-B9C7-08402A2F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1FDD6627-C863-4C40-945E-5F3DB0ACABB4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1FDD6627-C863-4C40-945E-5F3DB0ACABB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>product</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>database manager</t>
+  </si>
+  <si>
+    <t>dbmngr</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B42F9AC-5B79-4C6D-9142-1134F5BEA8EE}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,11 +541,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
